--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Tnf-Tnfrsf1a.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Tnf-Tnfrsf1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,22 +79,22 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Tnf</t>
   </si>
   <si>
     <t>Tnfrsf1a</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.01867309026437</v>
+        <v>6.033516</v>
       </c>
       <c r="H2">
-        <v>6.01867309026437</v>
+        <v>18.100548</v>
       </c>
       <c r="I2">
-        <v>0.0409490460397586</v>
+        <v>0.03870191373736741</v>
       </c>
       <c r="J2">
-        <v>0.0409490460397586</v>
+        <v>0.03870191373736741</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>46.9014718238501</v>
+        <v>47.53430066666667</v>
       </c>
       <c r="N2">
-        <v>46.9014718238501</v>
+        <v>142.602902</v>
       </c>
       <c r="O2">
-        <v>0.2310501711839757</v>
+        <v>0.2298097923041026</v>
       </c>
       <c r="P2">
-        <v>0.2310501711839757</v>
+        <v>0.2298097923041026</v>
       </c>
       <c r="Q2">
-        <v>282.2846263599992</v>
+        <v>286.798963621144</v>
       </c>
       <c r="R2">
-        <v>282.2846263599992</v>
+        <v>2581.190672590296</v>
       </c>
       <c r="S2">
-        <v>0.009461284097306727</v>
+        <v>0.008894078757755698</v>
       </c>
       <c r="T2">
-        <v>0.009461284097306727</v>
+        <v>0.0088940787577557</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.01867309026437</v>
+        <v>6.033516</v>
       </c>
       <c r="H3">
-        <v>6.01867309026437</v>
+        <v>18.100548</v>
       </c>
       <c r="I3">
-        <v>0.0409490460397586</v>
+        <v>0.03870191373736741</v>
       </c>
       <c r="J3">
-        <v>0.0409490460397586</v>
+        <v>0.03870191373736741</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>51.8689398202768</v>
+        <v>51.976569</v>
       </c>
       <c r="N3">
-        <v>51.8689398202768</v>
+        <v>155.929707</v>
       </c>
       <c r="O3">
-        <v>0.2555213505797078</v>
+        <v>0.2512864259922955</v>
       </c>
       <c r="P3">
-        <v>0.2555213505797078</v>
+        <v>0.2512864259922956</v>
       </c>
       <c r="Q3">
-        <v>312.182192316842</v>
+        <v>313.601460686604</v>
       </c>
       <c r="R3">
-        <v>312.182192316842</v>
+        <v>2822.413146179436</v>
       </c>
       <c r="S3">
-        <v>0.01046335554902975</v>
+        <v>0.00972526558212518</v>
       </c>
       <c r="T3">
-        <v>0.01046335554902975</v>
+        <v>0.009725265582125183</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.01867309026437</v>
+        <v>6.033516</v>
       </c>
       <c r="H4">
-        <v>6.01867309026437</v>
+        <v>18.100548</v>
       </c>
       <c r="I4">
-        <v>0.0409490460397586</v>
+        <v>0.03870191373736741</v>
       </c>
       <c r="J4">
-        <v>0.0409490460397586</v>
+        <v>0.03870191373736741</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>43.6693854919082</v>
+        <v>43.88814033333333</v>
       </c>
       <c r="N4">
-        <v>43.6693854919082</v>
+        <v>131.664421</v>
       </c>
       <c r="O4">
-        <v>0.2151279821515877</v>
+        <v>0.2121820300953617</v>
       </c>
       <c r="P4">
-        <v>0.2151279821515877</v>
+        <v>0.2121820300953618</v>
       </c>
       <c r="Q4">
-        <v>262.8317553285292</v>
+        <v>264.799796911412</v>
       </c>
       <c r="R4">
-        <v>262.8317553285292</v>
+        <v>2383.198172202708</v>
       </c>
       <c r="S4">
-        <v>0.008809285645565729</v>
+        <v>0.008211850625370184</v>
       </c>
       <c r="T4">
-        <v>0.008809285645565729</v>
+        <v>0.008211850625370188</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.01867309026437</v>
+        <v>6.033516</v>
       </c>
       <c r="H5">
-        <v>6.01867309026437</v>
+        <v>18.100548</v>
       </c>
       <c r="I5">
-        <v>0.0409490460397586</v>
+        <v>0.03870191373736741</v>
       </c>
       <c r="J5">
-        <v>0.0409490460397586</v>
+        <v>0.03870191373736741</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>52.358197119153</v>
+        <v>54.95204066666667</v>
       </c>
       <c r="N5">
-        <v>52.358197119153</v>
+        <v>164.856122</v>
       </c>
       <c r="O5">
-        <v>0.2579315730793964</v>
+        <v>0.2656716702502996</v>
       </c>
       <c r="P5">
-        <v>0.2579315730793964</v>
+        <v>0.2656716702502997</v>
       </c>
       <c r="Q5">
-        <v>315.1268720558036</v>
+        <v>331.554016594984</v>
       </c>
       <c r="R5">
-        <v>315.1268720558036</v>
+        <v>2983.986149354856</v>
       </c>
       <c r="S5">
-        <v>0.01056205186113556</v>
+        <v>0.01028200206448942</v>
       </c>
       <c r="T5">
-        <v>0.01056205186113556</v>
+        <v>0.01028200206448942</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.01867309026437</v>
+        <v>6.033516</v>
       </c>
       <c r="H6">
-        <v>6.01867309026437</v>
+        <v>18.100548</v>
       </c>
       <c r="I6">
-        <v>0.0409490460397586</v>
+        <v>0.03870191373736741</v>
       </c>
       <c r="J6">
-        <v>0.0409490460397586</v>
+        <v>0.03870191373736741</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.194592088772611</v>
+        <v>8.490878</v>
       </c>
       <c r="N6">
-        <v>8.194592088772611</v>
+        <v>25.472634</v>
       </c>
       <c r="O6">
-        <v>0.04036892300533226</v>
+        <v>0.04105008135794053</v>
       </c>
       <c r="P6">
-        <v>0.04036892300533226</v>
+        <v>0.04105008135794054</v>
       </c>
       <c r="Q6">
-        <v>49.32057089038901</v>
+        <v>51.229848267048</v>
       </c>
       <c r="R6">
-        <v>49.32057089038901</v>
+        <v>461.068634403432</v>
       </c>
       <c r="S6">
-        <v>0.001653068886720821</v>
+        <v>0.001588716707626928</v>
       </c>
       <c r="T6">
-        <v>0.001653068886720821</v>
+        <v>0.001588716707626929</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -847,49 +847,49 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>62.9895844069171</v>
+        <v>0.3544293333333333</v>
       </c>
       <c r="H7">
-        <v>62.9895844069171</v>
+        <v>1.063288</v>
       </c>
       <c r="I7">
-        <v>0.4285601416160004</v>
+        <v>0.002273482573786049</v>
       </c>
       <c r="J7">
-        <v>0.4285601416160004</v>
+        <v>0.002273482573786049</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>46.9014718238501</v>
+        <v>47.53430066666667</v>
       </c>
       <c r="N7">
-        <v>46.9014718238501</v>
+        <v>142.602902</v>
       </c>
       <c r="O7">
-        <v>0.2310501711839757</v>
+        <v>0.2298097923041026</v>
       </c>
       <c r="P7">
-        <v>0.2310501711839757</v>
+        <v>0.2298097923041026</v>
       </c>
       <c r="Q7">
-        <v>2954.30421825705</v>
+        <v>16.84755049575289</v>
       </c>
       <c r="R7">
-        <v>2954.30421825705</v>
+        <v>151.627954461776</v>
       </c>
       <c r="S7">
-        <v>0.09901889408300578</v>
+        <v>0.0005224685580887684</v>
       </c>
       <c r="T7">
-        <v>0.09901889408300578</v>
+        <v>0.0005224685580887684</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>62.9895844069171</v>
+        <v>0.3544293333333333</v>
       </c>
       <c r="H8">
-        <v>62.9895844069171</v>
+        <v>1.063288</v>
       </c>
       <c r="I8">
-        <v>0.4285601416160004</v>
+        <v>0.002273482573786049</v>
       </c>
       <c r="J8">
-        <v>0.4285601416160004</v>
+        <v>0.002273482573786049</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>51.8689398202768</v>
+        <v>51.976569</v>
       </c>
       <c r="N8">
-        <v>51.8689398202768</v>
+        <v>155.929707</v>
       </c>
       <c r="O8">
-        <v>0.2555213505797078</v>
+        <v>0.2512864259922955</v>
       </c>
       <c r="P8">
-        <v>0.2555213505797078</v>
+        <v>0.2512864259922956</v>
       </c>
       <c r="Q8">
-        <v>3267.202962906629</v>
+        <v>18.422020699624</v>
       </c>
       <c r="R8">
-        <v>3267.202962906629</v>
+        <v>165.798186296616</v>
       </c>
       <c r="S8">
-        <v>0.1095062661903513</v>
+        <v>0.0005712953105224615</v>
       </c>
       <c r="T8">
-        <v>0.1095062661903513</v>
+        <v>0.0005712953105224616</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>62.9895844069171</v>
+        <v>0.3544293333333333</v>
       </c>
       <c r="H9">
-        <v>62.9895844069171</v>
+        <v>1.063288</v>
       </c>
       <c r="I9">
-        <v>0.4285601416160004</v>
+        <v>0.002273482573786049</v>
       </c>
       <c r="J9">
-        <v>0.4285601416160004</v>
+        <v>0.002273482573786049</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>43.6693854919082</v>
+        <v>43.88814033333333</v>
       </c>
       <c r="N9">
-        <v>43.6693854919082</v>
+        <v>131.664421</v>
       </c>
       <c r="O9">
-        <v>0.2151279821515877</v>
+        <v>0.2121820300953617</v>
       </c>
       <c r="P9">
-        <v>0.2151279821515877</v>
+        <v>0.2121820300953618</v>
       </c>
       <c r="Q9">
-        <v>2750.716443440753</v>
+        <v>15.55524431958311</v>
       </c>
       <c r="R9">
-        <v>2750.716443440753</v>
+        <v>139.997198876248</v>
       </c>
       <c r="S9">
-        <v>0.09219527849644882</v>
+        <v>0.0004823921478923518</v>
       </c>
       <c r="T9">
-        <v>0.09219527849644882</v>
+        <v>0.000482392147892352</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>62.9895844069171</v>
+        <v>0.3544293333333333</v>
       </c>
       <c r="H10">
-        <v>62.9895844069171</v>
+        <v>1.063288</v>
       </c>
       <c r="I10">
-        <v>0.4285601416160004</v>
+        <v>0.002273482573786049</v>
       </c>
       <c r="J10">
-        <v>0.4285601416160004</v>
+        <v>0.002273482573786049</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>52.358197119153</v>
+        <v>54.95204066666667</v>
       </c>
       <c r="N10">
-        <v>52.358197119153</v>
+        <v>164.856122</v>
       </c>
       <c r="O10">
-        <v>0.2579315730793964</v>
+        <v>0.2656716702502996</v>
       </c>
       <c r="P10">
-        <v>0.2579315730793964</v>
+        <v>0.2656716702502997</v>
       </c>
       <c r="Q10">
-        <v>3298.021076830892</v>
+        <v>19.47661513879289</v>
       </c>
       <c r="R10">
-        <v>3298.021076830892</v>
+        <v>175.289536249136</v>
       </c>
       <c r="S10">
-        <v>0.1105391914861439</v>
+        <v>0.0006039999126626897</v>
       </c>
       <c r="T10">
-        <v>0.1105391914861439</v>
+        <v>0.0006039999126626898</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>62.9895844069171</v>
+        <v>0.3544293333333333</v>
       </c>
       <c r="H11">
-        <v>62.9895844069171</v>
+        <v>1.063288</v>
       </c>
       <c r="I11">
-        <v>0.4285601416160004</v>
+        <v>0.002273482573786049</v>
       </c>
       <c r="J11">
-        <v>0.4285601416160004</v>
+        <v>0.002273482573786049</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.194592088772611</v>
+        <v>8.490878</v>
       </c>
       <c r="N11">
-        <v>8.194592088772611</v>
+        <v>25.472634</v>
       </c>
       <c r="O11">
-        <v>0.04036892300533226</v>
+        <v>0.04105008135794053</v>
       </c>
       <c r="P11">
-        <v>0.04036892300533226</v>
+        <v>0.04105008135794054</v>
       </c>
       <c r="Q11">
-        <v>516.1739500559975</v>
+        <v>3.009416228954667</v>
       </c>
       <c r="R11">
-        <v>516.1739500559975</v>
+        <v>27.084746060592</v>
       </c>
       <c r="S11">
-        <v>0.01730051136005061</v>
+        <v>9.332664461977735E-05</v>
       </c>
       <c r="T11">
-        <v>0.01730051136005061</v>
+        <v>9.332664461977736E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>77.9713103398975</v>
+        <v>65.44186166666667</v>
       </c>
       <c r="H12">
-        <v>77.9713103398975</v>
+        <v>196.325585</v>
       </c>
       <c r="I12">
-        <v>0.530490812344241</v>
+        <v>0.4197760120361104</v>
       </c>
       <c r="J12">
-        <v>0.530490812344241</v>
+        <v>0.4197760120361104</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>46.9014718238501</v>
+        <v>47.53430066666667</v>
       </c>
       <c r="N12">
-        <v>46.9014718238501</v>
+        <v>142.602902</v>
       </c>
       <c r="O12">
-        <v>0.2310501711839757</v>
+        <v>0.2298097923041026</v>
       </c>
       <c r="P12">
-        <v>0.2310501711839757</v>
+        <v>0.2298097923041026</v>
       </c>
       <c r="Q12">
-        <v>3656.969214975375</v>
+        <v>3110.733128649741</v>
       </c>
       <c r="R12">
-        <v>3656.969214975375</v>
+        <v>27996.59815784767</v>
       </c>
       <c r="S12">
-        <v>0.1225699930036632</v>
+        <v>0.09646863814026298</v>
       </c>
       <c r="T12">
-        <v>0.1225699930036632</v>
+        <v>0.09646863814026299</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>77.9713103398975</v>
+        <v>65.44186166666667</v>
       </c>
       <c r="H13">
-        <v>77.9713103398975</v>
+        <v>196.325585</v>
       </c>
       <c r="I13">
-        <v>0.530490812344241</v>
+        <v>0.4197760120361104</v>
       </c>
       <c r="J13">
-        <v>0.530490812344241</v>
+        <v>0.4197760120361104</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>51.8689398202768</v>
+        <v>51.976569</v>
       </c>
       <c r="N13">
-        <v>51.8689398202768</v>
+        <v>155.929707</v>
       </c>
       <c r="O13">
-        <v>0.2555213505797078</v>
+        <v>0.2512864259922955</v>
       </c>
       <c r="P13">
-        <v>0.2555213505797078</v>
+        <v>0.2512864259922956</v>
       </c>
       <c r="Q13">
-        <v>4044.28920372827</v>
+        <v>3401.443438405955</v>
       </c>
       <c r="R13">
-        <v>4044.28920372827</v>
+        <v>30612.99094565359</v>
       </c>
       <c r="S13">
-        <v>0.1355517288403268</v>
+        <v>0.105484013781853</v>
       </c>
       <c r="T13">
-        <v>0.1355517288403268</v>
+        <v>0.105484013781853</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>77.9713103398975</v>
+        <v>65.44186166666667</v>
       </c>
       <c r="H14">
-        <v>77.9713103398975</v>
+        <v>196.325585</v>
       </c>
       <c r="I14">
-        <v>0.530490812344241</v>
+        <v>0.4197760120361104</v>
       </c>
       <c r="J14">
-        <v>0.530490812344241</v>
+        <v>0.4197760120361104</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>43.6693854919082</v>
+        <v>43.88814033333333</v>
       </c>
       <c r="N14">
-        <v>43.6693854919082</v>
+        <v>131.664421</v>
       </c>
       <c r="O14">
-        <v>0.2151279821515877</v>
+        <v>0.2121820300953617</v>
       </c>
       <c r="P14">
-        <v>0.2151279821515877</v>
+        <v>0.2121820300953618</v>
       </c>
       <c r="Q14">
-        <v>3404.959208542192</v>
+        <v>2872.121608501254</v>
       </c>
       <c r="R14">
-        <v>3404.959208542192</v>
+        <v>25849.09447651128</v>
       </c>
       <c r="S14">
-        <v>0.1141234180095731</v>
+        <v>0.0890689264191569</v>
       </c>
       <c r="T14">
-        <v>0.1141234180095731</v>
+        <v>0.08906892641915691</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>77.9713103398975</v>
+        <v>65.44186166666667</v>
       </c>
       <c r="H15">
-        <v>77.9713103398975</v>
+        <v>196.325585</v>
       </c>
       <c r="I15">
-        <v>0.530490812344241</v>
+        <v>0.4197760120361104</v>
       </c>
       <c r="J15">
-        <v>0.530490812344241</v>
+        <v>0.4197760120361104</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>52.358197119153</v>
+        <v>54.95204066666667</v>
       </c>
       <c r="N15">
-        <v>52.358197119153</v>
+        <v>164.856122</v>
       </c>
       <c r="O15">
-        <v>0.2579315730793964</v>
+        <v>0.2656716702502996</v>
       </c>
       <c r="P15">
-        <v>0.2579315730793964</v>
+        <v>0.2656716702502997</v>
       </c>
       <c r="Q15">
-        <v>4082.437236415005</v>
+        <v>3596.163843609041</v>
       </c>
       <c r="R15">
-        <v>4082.437236415005</v>
+        <v>32365.47459248137</v>
       </c>
       <c r="S15">
-        <v>0.136830329732117</v>
+        <v>0.1115225942486433</v>
       </c>
       <c r="T15">
-        <v>0.136830329732117</v>
+        <v>0.1115225942486433</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>65.44186166666667</v>
+      </c>
+      <c r="H16">
+        <v>196.325585</v>
+      </c>
+      <c r="I16">
+        <v>0.4197760120361104</v>
+      </c>
+      <c r="J16">
+        <v>0.4197760120361104</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>8.490878</v>
+      </c>
+      <c r="N16">
+        <v>25.472634</v>
+      </c>
+      <c r="O16">
+        <v>0.04105008135794053</v>
+      </c>
+      <c r="P16">
+        <v>0.04105008135794054</v>
+      </c>
+      <c r="Q16">
+        <v>555.6588635045433</v>
+      </c>
+      <c r="R16">
+        <v>5000.929771540889</v>
+      </c>
+      <c r="S16">
+        <v>0.01723183944619416</v>
+      </c>
+      <c r="T16">
+        <v>0.01723183944619416</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>83.93302799999999</v>
+      </c>
+      <c r="H17">
+        <v>251.799084</v>
+      </c>
+      <c r="I17">
+        <v>0.5383873697147804</v>
+      </c>
+      <c r="J17">
+        <v>0.5383873697147805</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>47.53430066666667</v>
+      </c>
+      <c r="N17">
+        <v>142.602902</v>
+      </c>
+      <c r="O17">
+        <v>0.2298097923041026</v>
+      </c>
+      <c r="P17">
+        <v>0.2298097923041026</v>
+      </c>
+      <c r="Q17">
+        <v>3989.697788815752</v>
+      </c>
+      <c r="R17">
+        <v>35907.28009934177</v>
+      </c>
+      <c r="S17">
+        <v>0.1237266896133058</v>
+      </c>
+      <c r="T17">
+        <v>0.1237266896133058</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>83.93302799999999</v>
+      </c>
+      <c r="H18">
+        <v>251.799084</v>
+      </c>
+      <c r="I18">
+        <v>0.5383873697147804</v>
+      </c>
+      <c r="J18">
+        <v>0.5383873697147805</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>51.976569</v>
+      </c>
+      <c r="N18">
+        <v>155.929707</v>
+      </c>
+      <c r="O18">
+        <v>0.2512864259922955</v>
+      </c>
+      <c r="P18">
+        <v>0.2512864259922956</v>
+      </c>
+      <c r="Q18">
+        <v>4362.550821220932</v>
+      </c>
+      <c r="R18">
+        <v>39262.95739098839</v>
+      </c>
+      <c r="S18">
+        <v>0.1352894379350198</v>
+      </c>
+      <c r="T18">
+        <v>0.1352894379350199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>83.93302799999999</v>
+      </c>
+      <c r="H19">
+        <v>251.799084</v>
+      </c>
+      <c r="I19">
+        <v>0.5383873697147804</v>
+      </c>
+      <c r="J19">
+        <v>0.5383873697147805</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>43.88814033333333</v>
+      </c>
+      <c r="N19">
+        <v>131.664421</v>
+      </c>
+      <c r="O19">
+        <v>0.2121820300953617</v>
+      </c>
+      <c r="P19">
+        <v>0.2121820300953618</v>
+      </c>
+      <c r="Q19">
+        <v>3683.664511465596</v>
+      </c>
+      <c r="R19">
+        <v>33152.98060319036</v>
+      </c>
+      <c r="S19">
+        <v>0.1142361250837842</v>
+      </c>
+      <c r="T19">
+        <v>0.1142361250837842</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>83.93302799999999</v>
+      </c>
+      <c r="H20">
+        <v>251.799084</v>
+      </c>
+      <c r="I20">
+        <v>0.5383873697147804</v>
+      </c>
+      <c r="J20">
+        <v>0.5383873697147805</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>54.95204066666667</v>
+      </c>
+      <c r="N20">
+        <v>164.856122</v>
+      </c>
+      <c r="O20">
+        <v>0.2656716702502996</v>
+      </c>
+      <c r="P20">
+        <v>0.2656716702502997</v>
+      </c>
+      <c r="Q20">
+        <v>4612.291167932472</v>
+      </c>
+      <c r="R20">
+        <v>41510.62051139225</v>
+      </c>
+      <c r="S20">
+        <v>0.1430342717537913</v>
+      </c>
+      <c r="T20">
+        <v>0.1430342717537914</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>77.9713103398975</v>
-      </c>
-      <c r="H16">
-        <v>77.9713103398975</v>
-      </c>
-      <c r="I16">
-        <v>0.530490812344241</v>
-      </c>
-      <c r="J16">
-        <v>0.530490812344241</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>8.194592088772611</v>
-      </c>
-      <c r="N16">
-        <v>8.194592088772611</v>
-      </c>
-      <c r="O16">
-        <v>0.04036892300533226</v>
-      </c>
-      <c r="P16">
-        <v>0.04036892300533226</v>
-      </c>
-      <c r="Q16">
-        <v>638.9430828625581</v>
-      </c>
-      <c r="R16">
-        <v>638.9430828625581</v>
-      </c>
-      <c r="S16">
-        <v>0.02141534275856083</v>
-      </c>
-      <c r="T16">
-        <v>0.02141534275856083</v>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>83.93302799999999</v>
+      </c>
+      <c r="H21">
+        <v>251.799084</v>
+      </c>
+      <c r="I21">
+        <v>0.5383873697147804</v>
+      </c>
+      <c r="J21">
+        <v>0.5383873697147805</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>8.490878</v>
+      </c>
+      <c r="N21">
+        <v>25.472634</v>
+      </c>
+      <c r="O21">
+        <v>0.04105008135794053</v>
+      </c>
+      <c r="P21">
+        <v>0.04105008135794054</v>
+      </c>
+      <c r="Q21">
+        <v>712.665100918584</v>
+      </c>
+      <c r="R21">
+        <v>6413.985908267256</v>
+      </c>
+      <c r="S21">
+        <v>0.02210084532887934</v>
+      </c>
+      <c r="T21">
+        <v>0.02210084532887935</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.134262</v>
+      </c>
+      <c r="H22">
+        <v>0.402786</v>
+      </c>
+      <c r="I22">
+        <v>0.0008612219379556502</v>
+      </c>
+      <c r="J22">
+        <v>0.0008612219379556503</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>47.53430066666667</v>
+      </c>
+      <c r="N22">
+        <v>142.602902</v>
+      </c>
+      <c r="O22">
+        <v>0.2298097923041026</v>
+      </c>
+      <c r="P22">
+        <v>0.2298097923041026</v>
+      </c>
+      <c r="Q22">
+        <v>6.382050276108</v>
+      </c>
+      <c r="R22">
+        <v>57.438452484972</v>
+      </c>
+      <c r="S22">
+        <v>0.0001979172346893247</v>
+      </c>
+      <c r="T22">
+        <v>0.0001979172346893247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.134262</v>
+      </c>
+      <c r="H23">
+        <v>0.402786</v>
+      </c>
+      <c r="I23">
+        <v>0.0008612219379556502</v>
+      </c>
+      <c r="J23">
+        <v>0.0008612219379556503</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>51.976569</v>
+      </c>
+      <c r="N23">
+        <v>155.929707</v>
+      </c>
+      <c r="O23">
+        <v>0.2512864259922955</v>
+      </c>
+      <c r="P23">
+        <v>0.2512864259922956</v>
+      </c>
+      <c r="Q23">
+        <v>6.978478107078001</v>
+      </c>
+      <c r="R23">
+        <v>62.806302963702</v>
+      </c>
+      <c r="S23">
+        <v>0.0002164133827750338</v>
+      </c>
+      <c r="T23">
+        <v>0.0002164133827750339</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.134262</v>
+      </c>
+      <c r="H24">
+        <v>0.402786</v>
+      </c>
+      <c r="I24">
+        <v>0.0008612219379556502</v>
+      </c>
+      <c r="J24">
+        <v>0.0008612219379556503</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>43.88814033333333</v>
+      </c>
+      <c r="N24">
+        <v>131.664421</v>
+      </c>
+      <c r="O24">
+        <v>0.2121820300953617</v>
+      </c>
+      <c r="P24">
+        <v>0.2121820300953618</v>
+      </c>
+      <c r="Q24">
+        <v>5.892509497433999</v>
+      </c>
+      <c r="R24">
+        <v>53.032585476906</v>
+      </c>
+      <c r="S24">
+        <v>0.0001827358191580915</v>
+      </c>
+      <c r="T24">
+        <v>0.0001827358191580916</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.134262</v>
+      </c>
+      <c r="H25">
+        <v>0.402786</v>
+      </c>
+      <c r="I25">
+        <v>0.0008612219379556502</v>
+      </c>
+      <c r="J25">
+        <v>0.0008612219379556503</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>54.95204066666667</v>
+      </c>
+      <c r="N25">
+        <v>164.856122</v>
+      </c>
+      <c r="O25">
+        <v>0.2656716702502996</v>
+      </c>
+      <c r="P25">
+        <v>0.2656716702502997</v>
+      </c>
+      <c r="Q25">
+        <v>7.377970883988</v>
+      </c>
+      <c r="R25">
+        <v>66.401737955892</v>
+      </c>
+      <c r="S25">
+        <v>0.0002288022707128775</v>
+      </c>
+      <c r="T25">
+        <v>0.0002288022707128776</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.134262</v>
+      </c>
+      <c r="H26">
+        <v>0.402786</v>
+      </c>
+      <c r="I26">
+        <v>0.0008612219379556502</v>
+      </c>
+      <c r="J26">
+        <v>0.0008612219379556503</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>8.490878</v>
+      </c>
+      <c r="N26">
+        <v>25.472634</v>
+      </c>
+      <c r="O26">
+        <v>0.04105008135794053</v>
+      </c>
+      <c r="P26">
+        <v>0.04105008135794054</v>
+      </c>
+      <c r="Q26">
+        <v>1.140002262036</v>
+      </c>
+      <c r="R26">
+        <v>10.260020358324</v>
+      </c>
+      <c r="S26">
+        <v>3.535323062032266E-05</v>
+      </c>
+      <c r="T26">
+        <v>3.535323062032267E-05</v>
       </c>
     </row>
   </sheetData>
